--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
@@ -537,28 +537,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.036455333333334</v>
+        <v>0.2184343333333333</v>
       </c>
       <c r="H2">
-        <v>6.109366000000001</v>
+        <v>0.655303</v>
       </c>
       <c r="I2">
-        <v>0.05235126607966554</v>
+        <v>0.008416673064019609</v>
       </c>
       <c r="J2">
-        <v>0.05235126607966553</v>
+        <v>0.00841667306401961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="N2">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.05192689572622224</v>
+        <v>0.008491125028222222</v>
       </c>
       <c r="R2">
-        <v>0.4673420615360001</v>
+        <v>0.07642012525399999</v>
       </c>
       <c r="S2">
-        <v>0.05235126607966554</v>
+        <v>0.008416673064019609</v>
       </c>
       <c r="T2">
-        <v>0.05235126607966553</v>
+        <v>0.00841667306401961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>12.599484</v>
       </c>
       <c r="I3">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="J3">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="N3">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1070900142293333</v>
+        <v>0.1632585139013333</v>
       </c>
       <c r="R3">
-        <v>0.9638101280640001</v>
+        <v>1.469326625112</v>
       </c>
       <c r="S3">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
       <c r="T3">
-        <v>0.1079652028296371</v>
+        <v>0.1618270290283213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.620790333333333</v>
+        <v>3.307112333333333</v>
       </c>
       <c r="H4">
-        <v>7.862371</v>
+        <v>9.921336999999999</v>
       </c>
       <c r="I4">
-        <v>0.06737279715080845</v>
+        <v>0.1274290669918512</v>
       </c>
       <c r="J4">
-        <v>0.06737279715080843</v>
+        <v>0.1274290669918513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="N4">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0668266591128889</v>
+        <v>0.1285562753628889</v>
       </c>
       <c r="R4">
-        <v>0.601439932016</v>
+        <v>1.157006478266</v>
       </c>
       <c r="S4">
-        <v>0.06737279715080845</v>
+        <v>0.1274290669918512</v>
       </c>
       <c r="T4">
-        <v>0.06737279715080843</v>
+        <v>0.1274290669918513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.042756</v>
+        <v>18.22719966666667</v>
       </c>
       <c r="H5">
-        <v>90.12826799999999</v>
+        <v>54.681599</v>
       </c>
       <c r="I5">
-        <v>0.772310733939889</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="J5">
-        <v>0.7723107339398889</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02549866666666667</v>
+        <v>0.03887266666666667</v>
       </c>
       <c r="N5">
-        <v>0.07649600000000001</v>
+        <v>0.116618</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.766050220992</v>
+        <v>0.7085398569091111</v>
       </c>
       <c r="R5">
-        <v>6.894451988928</v>
+        <v>6.376858712182</v>
       </c>
       <c r="S5">
-        <v>0.772310733939889</v>
+        <v>0.7023272309158078</v>
       </c>
       <c r="T5">
-        <v>0.7723107339398889</v>
+        <v>0.7023272309158078</v>
       </c>
     </row>
   </sheetData>
